--- a/storage/excel/MS.T-MASTERxlsx.xlsx
+++ b/storage/excel/MS.T-MASTERxlsx.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\stemdja-master-app\storage\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F3A71C-B352-4455-856D-9F6DCEA2EBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABCFD3-FB9F-4A42-9C71-E1ABF7F2D5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{83A71E8B-21DE-4722-8DE0-3A250E78E338}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83A71E8B-21DE-4722-8DE0-3A250E78E338}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Siswa" sheetId="1" r:id="rId1"/>
     <sheet name="Ruangan" sheetId="2" r:id="rId2"/>
+    <sheet name="Users" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="AGAMA" localSheetId="0">'Data Siswa'!$I:$I</definedName>
+    <definedName name="JK" localSheetId="0">'Data Siswa'!$F:$F</definedName>
+    <definedName name="KONTAK" localSheetId="0">'Data Siswa'!$J:$J</definedName>
+    <definedName name="NAMA_LENGKAP" localSheetId="0">'Data Siswa'!$E:$E</definedName>
+    <definedName name="NIK" localSheetId="0">'Data Siswa'!$D:$D</definedName>
+    <definedName name="NIS" localSheetId="0">'Data Siswa'!$B:$B</definedName>
+    <definedName name="NISN" localSheetId="0">'Data Siswa'!$C:$C</definedName>
+    <definedName name="RUANGAN" localSheetId="0">'Data Siswa'!$K:$K</definedName>
+    <definedName name="TANGGAL_LAHIR" localSheetId="0">'Data Siswa'!$H:$H</definedName>
+    <definedName name="TEMPAT_LAHIR" localSheetId="0">'Data Siswa'!$G:$G</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="98">
   <si>
     <t>NIS</t>
   </si>
@@ -302,6 +315,24 @@
   </si>
   <si>
     <t>12 ATPH 3</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>smkn1maja</t>
+  </si>
+  <si>
+    <t>12 ATPH 4</t>
   </si>
 </sst>
 </file>
@@ -348,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,6 +391,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045F20E5-FEB5-4A50-9DC0-9435DD2C5927}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A34"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,6 +1000,9 @@
         <f>B2 &amp; "@smkn1maja.sch.id"</f>
         <v>102223246@smkn1maja.sch.id</v>
       </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -999,6 +1036,9 @@
         <f t="shared" ref="J3:J34" si="0">B3 &amp; "@smkn1maja.sch.id"</f>
         <v>102223248@smkn1maja.sch.id</v>
       </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -1032,6 +1072,9 @@
         <f t="shared" si="0"/>
         <v>102223249@smkn1maja.sch.id</v>
       </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1065,6 +1108,9 @@
         <f t="shared" si="0"/>
         <v>102223250@smkn1maja.sch.id</v>
       </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1098,6 +1144,9 @@
         <f t="shared" si="0"/>
         <v>102223251@smkn1maja.sch.id</v>
       </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1131,6 +1180,9 @@
         <f t="shared" si="0"/>
         <v>102223252@smkn1maja.sch.id</v>
       </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1164,6 +1216,9 @@
         <f t="shared" si="0"/>
         <v>102223253@smkn1maja.sch.id</v>
       </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1197,6 +1252,9 @@
         <f t="shared" si="0"/>
         <v>102223254@smkn1maja.sch.id</v>
       </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1230,6 +1288,9 @@
         <f t="shared" si="0"/>
         <v>102223255@smkn1maja.sch.id</v>
       </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1263,6 +1324,9 @@
         <f t="shared" si="0"/>
         <v>102223256@smkn1maja.sch.id</v>
       </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1296,6 +1360,9 @@
         <f t="shared" si="0"/>
         <v>102223257@smkn1maja.sch.id</v>
       </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1329,6 +1396,9 @@
         <f t="shared" si="0"/>
         <v>102223259@smkn1maja.sch.id</v>
       </c>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1362,6 +1432,9 @@
         <f t="shared" si="0"/>
         <v>102223260@smkn1maja.sch.id</v>
       </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1395,6 +1468,9 @@
         <f t="shared" si="0"/>
         <v>102223261@smkn1maja.sch.id</v>
       </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1428,8 +1504,11 @@
         <f t="shared" si="0"/>
         <v>102223262@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1461,8 +1540,11 @@
         <f t="shared" si="0"/>
         <v>102223263@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1494,8 +1576,11 @@
         <f t="shared" si="0"/>
         <v>102223264@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1527,8 +1612,11 @@
         <f t="shared" si="0"/>
         <v>102223265@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1560,8 +1648,11 @@
         <f t="shared" si="0"/>
         <v>102223266@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1593,8 +1684,11 @@
         <f t="shared" si="0"/>
         <v>102223268@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1626,8 +1720,11 @@
         <f t="shared" si="0"/>
         <v>102223269@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1659,8 +1756,11 @@
         <f t="shared" si="0"/>
         <v>102223270@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1692,8 +1792,11 @@
         <f t="shared" si="0"/>
         <v>102223271@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1725,8 +1828,11 @@
         <f t="shared" si="0"/>
         <v>102223272@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1758,8 +1864,11 @@
         <f t="shared" si="0"/>
         <v>102223273@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1791,8 +1900,11 @@
         <f t="shared" si="0"/>
         <v>102223274@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1824,8 +1936,11 @@
         <f t="shared" si="0"/>
         <v>102223275@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1857,8 +1972,11 @@
         <f t="shared" si="0"/>
         <v>102223276@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1890,8 +2008,11 @@
         <f t="shared" si="0"/>
         <v>102223277@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1923,8 +2044,11 @@
         <f t="shared" si="0"/>
         <v>102223278@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1956,8 +2080,11 @@
         <f t="shared" si="0"/>
         <v>102223279@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1989,8 +2116,11 @@
         <f t="shared" si="0"/>
         <v>102223280@smkn1maja.sch.id</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2021,378 +2151,1320 @@
       <c r="J34" t="str">
         <f t="shared" si="0"/>
         <v>102223281@smkn1maja.sch.id</v>
+      </c>
+      <c r="K34" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5A900F9E-0A6C-4707-B947-B924B97BC1A2}">
+          <x14:formula1>
+            <xm:f>Ruangan!$B$2:$B$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4C8932-D75E-41A2-982D-C42A30030485}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>Users!C2</f>
+        <v>10te1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>Users!C3</f>
+        <v>10te2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f>Users!C4</f>
+        <v>10te3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f>Users!C5</f>
+        <v>10te4@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>Users!C6</f>
+        <v>10pplg1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>Users!C7</f>
+        <v>10pplg2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f>Users!C8</f>
+        <v>10pplg3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f>Users!C9</f>
+        <v>10pplg4@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f>Users!C10</f>
+        <v>10tjkt1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f>Users!C11</f>
+        <v>10tjkt2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f>Users!C12</f>
+        <v>10tjkt3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f>Users!C13</f>
+        <v>10tjkt4@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f>Users!C14</f>
+        <v>10at1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f>Users!C15</f>
+        <v>10at2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f>Users!C16</f>
+        <v>10at3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f>Users!C17</f>
+        <v>10at4@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="str">
+        <f>Users!C18</f>
+        <v>11tav1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="str">
+        <f>Users!C19</f>
+        <v>11tav2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f>Users!C20</f>
+        <v>11tav3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f>Users!C21</f>
+        <v>11tkj1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="str">
+        <f>Users!C22</f>
+        <v>11tkj2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f>Users!C23</f>
+        <v>11tkj3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
+        <f>Users!C24</f>
+        <v>11tkj4@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f>Users!C25</f>
+        <v>11rpl1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="str">
+        <f>Users!C26</f>
+        <v>11rpl2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <f>Users!C27</f>
+        <v>11rpl3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="str">
+        <f>Users!C28</f>
+        <v>11rpl4@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f>Users!C29</f>
+        <v>11atph1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <f>Users!C30</f>
+        <v>11atph2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f>Users!C31</f>
+        <v>11atph3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="str">
+        <f>Users!C32</f>
+        <v>11atph4@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="str">
+        <f>Users!C33</f>
+        <v>12tav1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="str">
+        <f>Users!C34</f>
+        <v>12tav2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="str">
+        <f>Users!C35</f>
+        <v>12tkj1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="str">
+        <f>Users!C36</f>
+        <v>12tkj2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="str">
+        <f>Users!C37</f>
+        <v>12tkj3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="str">
+        <f>Users!C38</f>
+        <v>12rpl1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="str">
+        <f>Users!C39</f>
+        <v>12rpl2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="str">
+        <f>Users!C40</f>
+        <v>12rpl3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="str">
+        <f>Users!C41</f>
+        <v>12rpl4@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="str">
+        <f>Users!C42</f>
+        <v>12atph1@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="str">
+        <f>Users!C43</f>
+        <v>12atph2@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>91</v>
+      </c>
+      <c r="C44" t="str">
+        <f>Users!C44</f>
+        <v>12atph3@smkn1maja.sch.id</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="str">
+        <f>Users!C45</f>
+        <v>12atph4@smkn1maja.sch.id</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C898B1D2-CD65-4789-9145-22B68B5B3DE9}">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Ruangan!B2</f>
+        <v>10 TE 1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LOWER(SUBSTITUTE(B2," ", "") &amp; "@smkn1maja.sch.id")</f>
+        <v>10te1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Ruangan!B3</f>
+        <v>10 TE 2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C44" si="0">LOWER(SUBSTITUTE(B3," ", "") &amp; "@smkn1maja.sch.id")</f>
+        <v>10te2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Ruangan!B4</f>
+        <v>10 TE 3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>10te3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Ruangan!B5</f>
+        <v>10 TE 4</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>10te4@smkn1maja.sch.id</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Ruangan!B6</f>
+        <v>10 PPLG 1</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>10pplg1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Ruangan!B7</f>
+        <v>10 PPLG 2</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>10pplg2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Ruangan!B8</f>
+        <v>10 PPLG 3</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>10pplg3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Ruangan!B9</f>
+        <v>10 PPLG 4</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>10pplg4@smkn1maja.sch.id</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Ruangan!B10</f>
+        <v>10 TJKT 1</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>10tjkt1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>Ruangan!B11</f>
+        <v>10 TJKT 2</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>10tjkt2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>Ruangan!B12</f>
+        <v>10 TJKT 3</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>10tjkt3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Ruangan!B13</f>
+        <v>10 TJKT 4</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>10tjkt4@smkn1maja.sch.id</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>Ruangan!B14</f>
+        <v>10 AT 1</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>10at1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Ruangan!B15</f>
+        <v>10 AT 2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>10at2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>Ruangan!B16</f>
+        <v>10 AT 3</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>10at3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Ruangan!B17</f>
+        <v>10 AT 4</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>10at4@smkn1maja.sch.id</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>Ruangan!B18</f>
+        <v>11 TAV 1</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>11tav1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f>Ruangan!B19</f>
+        <v>11 TAV 2</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>11tav2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <f>Ruangan!B20</f>
+        <v>11 TAV 3</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>11tav3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <f>Ruangan!B21</f>
+        <v>11 TKJ 1</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>11tkj1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f>Ruangan!B22</f>
+        <v>11 TKJ 2</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>11tkj2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <f>Ruangan!B23</f>
+        <v>11 TKJ 3</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>11tkj3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <f>Ruangan!B24</f>
+        <v>11 TKJ 4</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>11tkj4@smkn1maja.sch.id</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f>Ruangan!B25</f>
+        <v>11 RPL 1</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>11rpl1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <f>Ruangan!B26</f>
+        <v>11 RPL 2</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>11rpl2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="str">
+        <f>Ruangan!B27</f>
+        <v>11 RPL 3</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>11rpl3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="str">
+        <f>Ruangan!B28</f>
+        <v>11 RPL 4</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>11rpl4@smkn1maja.sch.id</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f>Ruangan!B29</f>
+        <v>11 ATPH 1</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>11atph1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f>Ruangan!B30</f>
+        <v>11 ATPH 2</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>11atph2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="str">
+        <f>Ruangan!B31</f>
+        <v>11 ATPH 3</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>11atph3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f>Ruangan!B32</f>
+        <v>11 ATPH 4</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>11atph4@smkn1maja.sch.id</v>
+      </c>
+      <c r="D32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="str">
+        <f>Ruangan!B33</f>
+        <v>12 TAV 1</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>12tav1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="str">
+        <f>Ruangan!B34</f>
+        <v>12 TAV 2</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>12tav2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="str">
+        <f>Ruangan!B35</f>
+        <v>12 TKJ 1</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>12tkj1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="str">
+        <f>Ruangan!B36</f>
+        <v>12 TKJ 2</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>12tkj2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="str">
+        <f>Ruangan!B37</f>
+        <v>12 TKJ 3</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>12tkj3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="str">
+        <f>Ruangan!B38</f>
+        <v>12 RPL 1</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>12rpl1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="str">
+        <f>Ruangan!B39</f>
+        <v>12 RPL 2</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>12rpl2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="str">
+        <f>Ruangan!B40</f>
+        <v>12 RPL 3</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>12rpl3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="str">
+        <f>Ruangan!B41</f>
+        <v>12 RPL 4</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>12rpl4@smkn1maja.sch.id</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="str">
+        <f>Ruangan!B42</f>
+        <v>12 ATPH 1</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>12atph1@smkn1maja.sch.id</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <f>Ruangan!B43</f>
+        <v>12 ATPH 2</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>12atph2@smkn1maja.sch.id</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <f>Ruangan!B44</f>
+        <v>12 ATPH 3</v>
+      </c>
+      <c r="C44" t="str">
+        <f>LOWER(SUBSTITUTE(B44," ", "") &amp; "@smkn1maja.sch.id")</f>
+        <v>12atph3@smkn1maja.sch.id</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <f>Ruangan!B45</f>
+        <v>12 ATPH 4</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" ref="C45:C57" si="1">LOWER(SUBSTITUTE(B45," ", "") &amp; "@smkn1maja.sch.id")</f>
+        <v>12atph4@smkn1maja.sch.id</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
